--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,93 +627,93 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,71 +787,71 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,61 +1373,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-12 14:05</t>
+          <t>09-16 15:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1226593564.html</t>
+          <t>/news,300655,1228257713.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
+          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-10 08:14</t>
+          <t>09-16 08:05</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1226487036.html</t>
+          <t>/news,300655,1227926017.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
+          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-09 08:20</t>
+          <t>09-15 08:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1226102364.html</t>
+          <t>/news,300655,1227431144.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
+          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-12 14:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1225665564.html</t>
+          <t>/news,300655,1226593564.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
+          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-07 14:13</t>
+          <t>09-10 08:14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1225487971.html</t>
+          <t>/news,300655,1226487036.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
+          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-07 08:05</t>
+          <t>09-09 08:20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1225227096.html</t>
+          <t>/news,300655,1226102364.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
+          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-05 23:41</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1224993957.html</t>
+          <t>/news,300655,1225665564.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
+          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-04 14:04</t>
+          <t>09-07 14:13</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1224360835.html</t>
+          <t>/news,300655,1225487971.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
+          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-03 07:42</t>
+          <t>09-07 08:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1224285292.html</t>
+          <t>/news,300655,1225227096.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：董事会决定不提前赎回“晶瑞转债”</t>
+          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-02 21:30</t>
+          <t>09-05 23:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1224248641.html</t>
+          <t>/news,300655,1224993957.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材09月01日被深股通减持17.35万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-02 08:21</t>
+          <t>09-04 14:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1223893424.html</t>
+          <t>/news,300655,1224360835.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材08月31日被深股通减持31.62万股</t>
+          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-01 08:10</t>
+          <t>09-03 07:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1223452275.html</t>
+          <t>/news,300655,1224285292.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比增长1.49%</t>
+          <t>晶瑞电材：董事会决定不提前赎回“晶瑞转债”</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-31 22:35</t>
+          <t>09-02 21:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1223409569.html</t>
+          <t>/news,300655,1224248641.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材08月30日被深股通减持36.39万股</t>
+          <t>晶瑞电材09月01日被深股通减持17.35万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-31 07:53</t>
+          <t>09-02 08:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1222965835.html</t>
+          <t>/news,300655,1223893424.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材08月29日获深股通增持16.52万股</t>
+          <t>晶瑞电材08月31日被深股通减持31.62万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-30 07:56</t>
+          <t>09-01 08:10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1222520002.html</t>
+          <t>/news,300655,1223452275.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1250.64万元，居电子化学品板块第二</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比增长1.49%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-28 14:05</t>
+          <t>08-31 22:35</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1222021264.html</t>
+          <t>/news,300655,1223409569.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材08月26日被深股通减持89.39万股</t>
+          <t>晶瑞电材08月30日被深股通减持36.39万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-27 08:23</t>
+          <t>08-31 07:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1221938041.html</t>
+          <t>/news,300655,1222965835.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材08月25日获深股通增持3.62万股</t>
+          <t>晶瑞电材08月29日获深股通增持16.52万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-26 08:22</t>
+          <t>08-30 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1221475645.html</t>
+          <t>/news,300655,1222520002.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材08月24日获深股通增持2.21万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1250.64万元，居电子化学品板块第二</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-25 08:09</t>
+          <t>08-28 14:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1220978093.html</t>
+          <t>/news,300655,1222021264.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材08月23日获深股通增持44.21万股</t>
+          <t>晶瑞电材08月26日被深股通减持89.39万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-24 08:08</t>
+          <t>08-27 08:23</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1220480814.html</t>
+          <t>/news,300655,1221938041.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,93 +787,93 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,61 +883,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,71 +979,71 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,83 +1053,83 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>984</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-16 15:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228257713.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-12 14:05</t>
+          <t>09-16 08:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1226593564.html</t>
+          <t>/news,300655,1227926017.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
+          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-10 08:14</t>
+          <t>09-15 08:12</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1226487036.html</t>
+          <t>/news,300655,1227431144.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
+          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-09 08:20</t>
+          <t>09-12 14:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1226102364.html</t>
+          <t>/news,300655,1226593564.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
+          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-10 08:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1225665564.html</t>
+          <t>/news,300655,1226487036.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
+          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-07 14:13</t>
+          <t>09-09 08:20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1225487971.html</t>
+          <t>/news,300655,1226102364.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
+          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-07 08:05</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1225227096.html</t>
+          <t>/news,300655,1225665564.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
+          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-05 23:41</t>
+          <t>09-07 14:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1224993957.html</t>
+          <t>/news,300655,1225487971.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
+          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-04 14:04</t>
+          <t>09-07 08:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1224360835.html</t>
+          <t>/news,300655,1225227096.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
+          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-03 07:42</t>
+          <t>09-05 23:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1224285292.html</t>
+          <t>/news,300655,1224993957.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：董事会决定不提前赎回“晶瑞转债”</t>
+          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-02 21:30</t>
+          <t>09-04 14:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1224248641.html</t>
+          <t>/news,300655,1224360835.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材09月01日被深股通减持17.35万股</t>
+          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-02 08:21</t>
+          <t>09-03 07:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1223893424.html</t>
+          <t>/news,300655,1224285292.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材08月31日被深股通减持31.62万股</t>
+          <t>晶瑞电材：董事会决定不提前赎回“晶瑞转债”</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-01 08:10</t>
+          <t>09-02 21:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1223452275.html</t>
+          <t>/news,300655,1224248641.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比增长1.49%</t>
+          <t>晶瑞电材09月01日被深股通减持17.35万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-31 22:35</t>
+          <t>09-02 08:21</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1223409569.html</t>
+          <t>/news,300655,1223893424.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材08月30日被深股通减持36.39万股</t>
+          <t>晶瑞电材08月31日被深股通减持31.62万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-31 07:53</t>
+          <t>09-01 08:10</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1222965835.html</t>
+          <t>/news,300655,1223452275.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材08月29日获深股通增持16.52万股</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比增长1.49%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-30 07:56</t>
+          <t>08-31 22:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1222520002.html</t>
+          <t>/news,300655,1223409569.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1250.64万元，居电子化学品板块第二</t>
+          <t>晶瑞电材08月30日被深股通减持36.39万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-28 14:05</t>
+          <t>08-31 07:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1222021264.html</t>
+          <t>/news,300655,1222965835.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材08月26日被深股通减持89.39万股</t>
+          <t>晶瑞电材08月29日获深股通增持16.52万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-27 08:23</t>
+          <t>08-30 07:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1221938041.html</t>
+          <t>/news,300655,1222520002.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,71 +851,71 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,83 +925,83 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,83 +1053,83 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,83 +1149,83 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,83 +1437,83 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-12 14:05</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1226593564.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
+          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-10 08:14</t>
+          <t>09-16 15:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1226487036.html</t>
+          <t>/news,300655,1228257713.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
+          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-09 08:20</t>
+          <t>09-16 08:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1226102364.html</t>
+          <t>/news,300655,1227926017.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
+          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-15 08:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1225665564.html</t>
+          <t>/news,300655,1227431144.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
+          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-07 14:13</t>
+          <t>09-12 14:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1225487971.html</t>
+          <t>/news,300655,1226593564.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
+          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-07 08:05</t>
+          <t>09-10 08:14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1225227096.html</t>
+          <t>/news,300655,1226487036.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
+          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-05 23:41</t>
+          <t>09-09 08:20</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1224993957.html</t>
+          <t>/news,300655,1226102364.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
+          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-04 14:04</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1224360835.html</t>
+          <t>/news,300655,1225665564.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>856</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
+          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-03 07:42</t>
+          <t>09-07 14:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1224285292.html</t>
+          <t>/news,300655,1225487971.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：董事会决定不提前赎回“晶瑞转债”</t>
+          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-02 21:30</t>
+          <t>09-07 08:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1224248641.html</t>
+          <t>/news,300655,1225227096.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材09月01日被深股通减持17.35万股</t>
+          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,93 +2877,93 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-02 08:21</t>
+          <t>09-05 23:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1223893424.html</t>
+          <t>/news,300655,1224993957.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材08月31日被深股通减持31.62万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-01 08:10</t>
+          <t>09-04 14:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1223452275.html</t>
+          <t>/news,300655,1224360835.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比增长1.49%</t>
+          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-31 22:35</t>
+          <t>09-03 07:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1223409569.html</t>
+          <t>/news,300655,1224285292.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材08月30日被深股通减持36.39万股</t>
+          <t>晶瑞电材：董事会决定不提前赎回“晶瑞转债”</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-31 07:53</t>
+          <t>09-02 21:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1222965835.html</t>
+          <t>/news,300655,1224248641.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材08月29日获深股通增持16.52万股</t>
+          <t>晶瑞电材09月01日被深股通减持17.35万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-30 07:56</t>
+          <t>09-02 08:21</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1222520002.html</t>
+          <t>/news,300655,1223893424.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,93 +979,93 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,71 +1171,71 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,83 +1245,83 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>988</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>806</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-16 15:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228257713.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-12 14:05</t>
+          <t>09-16 08:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1226593564.html</t>
+          <t>/news,300655,1227926017.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
+          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-10 08:14</t>
+          <t>09-15 08:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1226487036.html</t>
+          <t>/news,300655,1227431144.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
+          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-09 08:20</t>
+          <t>09-12 14:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1226102364.html</t>
+          <t>/news,300655,1226593564.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
+          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-10 08:14</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1225665564.html</t>
+          <t>/news,300655,1226487036.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
+          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-07 14:13</t>
+          <t>09-09 08:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1225487971.html</t>
+          <t>/news,300655,1226102364.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
+          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-07 08:05</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1225227096.html</t>
+          <t>/news,300655,1225665564.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
+          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-05 23:41</t>
+          <t>09-07 14:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1224993957.html</t>
+          <t>/news,300655,1225487971.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
+          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-04 14:04</t>
+          <t>09-07 08:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1224360835.html</t>
+          <t>/news,300655,1225227096.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
+          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-03 07:42</t>
+          <t>09-05 23:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1224285292.html</t>
+          <t>/news,300655,1224993957.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材：董事会决定不提前赎回“晶瑞转债”</t>
+          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-02 21:30</t>
+          <t>09-04 14:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1224248641.html</t>
+          <t>/news,300655,1224360835.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材09月01日被深股通减持17.35万股</t>
+          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-02 08:21</t>
+          <t>09-03 07:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1223893424.html</t>
+          <t>/news,300655,1224285292.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1225,7 +1225,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1392</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1513,7 +1513,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2185,7 +2185,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,71 +1043,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,83 +1117,83 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,83 +1245,83 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,83 +1341,83 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,83 +1629,83 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>807</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-12 14:05</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1226593564.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
+          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-10 08:14</t>
+          <t>09-16 15:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1226487036.html</t>
+          <t>/news,300655,1228257713.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
+          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-09 08:20</t>
+          <t>09-16 08:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1226102364.html</t>
+          <t>/news,300655,1227926017.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
+          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-15 08:12</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1225665564.html</t>
+          <t>/news,300655,1227431144.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
+          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-07 14:13</t>
+          <t>09-12 14:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1225487971.html</t>
+          <t>/news,300655,1226593564.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材09月06日被深股通减持31.12万股</t>
+          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-07 08:05</t>
+          <t>09-10 08:14</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1225227096.html</t>
+          <t>/news,300655,1226487036.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【调研快报】晶瑞电材接待海通证券等多家机构调研</t>
+          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-05 23:41</t>
+          <t>09-09 08:20</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1224993957.html</t>
+          <t>/news,300655,1226102364.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少55%，减仓幅度两市排名第16</t>
+          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-04 14:04</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1224360835.html</t>
+          <t>/news,300655,1225665564.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材09月02日被深股通减持8.91万股</t>
+          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-03 07:42</t>
+          <t>09-07 14:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1224285292.html</t>
+          <t>/news,300655,1225487971.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,61 +477,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,93 +1171,93 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,61 +1267,61 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,83 +1437,83 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1295</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>851</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-16 15:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228257713.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-12 14:05</t>
+          <t>09-16 08:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1226593564.html</t>
+          <t>/news,300655,1227926017.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
+          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-10 08:14</t>
+          <t>09-15 08:12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1226487036.html</t>
+          <t>/news,300655,1227431144.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
+          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-09 08:20</t>
+          <t>09-12 14:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1226102364.html</t>
+          <t>/news,300655,1226593564.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材09月07日被深股通减持14.84万股</t>
+          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-10 08:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1225665564.html</t>
+          <t>/news,300655,1226487036.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：主要产品如超净高纯化学品等在光伏行业均有应用 但销量及营收占比均较低</t>
+          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-07 14:13</t>
+          <t>09-09 08:20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1225487971.html</t>
+          <t>/news,300655,1226102364.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,71 +851,71 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,93 +1171,93 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,71 +1331,71 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>997</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加858.16万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-12 14:05</t>
+          <t>09-16 15:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1226593564.html</t>
+          <t>/news,300655,1228257713.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材09月09日获深股通增持7.85万股</t>
+          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-10 08:14</t>
+          <t>09-16 08:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1226487036.html</t>
+          <t>/news,300655,1227926017.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材09月08日获深股通增持42.64万股</t>
+          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-09 08:20</t>
+          <t>09-15 08:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1226102364.html</t>
+          <t>/news,300655,1227431144.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,71 +947,71 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,93 +1267,93 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,71 +1427,71 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>994</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司KrF光刻胶生产及测试线已经基本建成 设备正在安装调试中 争取今年批量供货</t>
+          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-16 15:52</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1228257713.html</t>
+          <t>/news,300655,1228440633.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材09月15日获深股通增持5.8万股</t>
+          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-16 08:05</t>
+          <t>09-17 08:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1227926017.html</t>
+          <t>/news,300655,1228361850.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材09月14日获深股通增持22.31万股</t>
+          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-15 08:12</t>
+          <t>09-16 16:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1227431144.html</t>
+          <t>/news,300655,1228271156.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,81 +457,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,71 +1043,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,93 +1363,93 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,71 +1523,71 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-23 08:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1230235842.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-22 08:09</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1229814003.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少358.5万元，居电子化学品板块第四</t>
+          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-21 07:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1228440633.html</t>
+          <t>/news,300655,1229384039.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材09月16日被深股通减持4.17万股</t>
+          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-17 08:48</t>
+          <t>09-20 07:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1228361850.html</t>
+          <t>/news,300655,1228972713.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：KrF光刻胶生产及测试线已基本建成 争取今年批量供货</t>
+          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-16 16:54</t>
+          <t>09-19 09:39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1228271156.html</t>
+          <t>/news,300655,1228566232.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>2153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,93 +701,93 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,71 +1043,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,61 +1683,61 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,93 +1789,93 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,83 +1981,83 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>998</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 11:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232695036.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-30 11:21</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232683297.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材09月22日获深股通增持33.07万股</t>
+          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-23 08:00</t>
+          <t>09-30 07:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1230235842.html</t>
+          <t>/news,300655,1232534168.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材09月21日获深股通增持82.07万股</t>
+          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-22 08:09</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1229814003.html</t>
+          <t>/news,300655,1232089442.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材09月20日被深股通减持2.19万股</t>
+          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-21 07:59</t>
+          <t>09-27 07:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1229384039.html</t>
+          <t>/news,300655,1231247984.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材09月19日被深股通减持19.58万股</t>
+          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-20 07:58</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1228972713.html</t>
+          <t>/news,300655,1230723262.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司2022年上半年研发投入为2,983.75万元，同比增长53.22%</t>
+          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-19 09:39</t>
+          <t>09-24 08:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1228566232.html</t>
+          <t>/news,300655,1230642086.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,93 +701,93 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,125 +925,125 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,93 +1683,93 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,83 +1853,83 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,83 +1981,83 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,93 +2173,93 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>1471</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,61 +2483,61 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司是一家平台型电子材料企业 产品主要应用在半导体和锂电池相关产业链</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-30 11:44</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1232695036.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的电子材料可以广泛地应用到半导体、光伏、面板、LED、锂电池制造领域</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-30 11:21</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1232683297.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材09月29日被深股通减持2.43万股</t>
+          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-30 07:39</t>
+          <t>10-11 07:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1232534168.html</t>
+          <t>/news,300655,1233836474.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材09月28日被深股通减持71.11万股</t>
+          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>10-10 21:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1232089442.html</t>
+          <t>/news,300655,1233773024.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材09月26日获深股通增持168.28万股</t>
+          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-27 07:53</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1231247984.html</t>
+          <t>/news,300655,1233316351.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比增加116%，增仓幅度两市排名第九</t>
+          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-30 20:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1230723262.html</t>
+          <t>/news,300655,1232878688.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材09月23日获深股通增持69.39万股</t>
+          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-24 08:00</t>
+          <t>09-30 11:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1230642086.html</t>
+          <t>/news,300655,1232695950.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3789</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>2145</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,51 +925,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,93 +1085,93 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>2907</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,71 +1427,71 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,61 +1619,61 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,93 +2173,93 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>806</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,83 +2365,83 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,93 +2653,93 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材10月10日获深股通增持44.58万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 07:48</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1233836474.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材：“晶瑞转债”第三季度转股约1.22万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 21:01</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1233773024.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1013.8万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-14 07:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1233316351.html</t>
+          <t>/news,300655,1235083734.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材：吴国华先生辞去公司副总经理职务</t>
+          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-30 20:02</t>
+          <t>10-13 07:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1232878688.html</t>
+          <t>/news,300655,1234646897.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司经营状况受汇率波动影响较小</t>
+          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-30 11:50</t>
+          <t>10-12 07:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1232695950.html</t>
+          <t>/news,300655,1234212223.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5247</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2145</t>
+          <t>2147</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1993,7 +1993,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2249,7 +2249,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>807</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2537,7 +2537,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2761,7 +2761,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1481</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,125 +573,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>5272</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2343</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,83 +1085,83 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2948</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,61 +1373,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,93 +2003,93 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,71 +2163,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材10月13日被深股通减持42.82万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 07:59</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1235083734.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材10月12日被深股通减持37.2万股</t>
+          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 07:57</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1234646897.html</t>
+          <t>/news,300655,1235576046.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材10月11日获深股通增持4.93万股</t>
+          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:45</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1234212223.html</t>
+          <t>/news,300655,1235512344.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,83 +573,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,71 +659,71 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5272</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2073</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>2078</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,83 +1181,83 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,71 +1267,71 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2919</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,61 +1715,61 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,93 +2163,93 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,71 +2355,71 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,83 +2429,83 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少1028.23万元，居电子化学品板块第五</t>
+          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1235576046.html</t>
+          <t>/news,300655,1236441270.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材10月14日被深股通减持38.99万股</t>
+          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-18 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1235512344.html</t>
+          <t>/news,300655,1236042779.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,83 +637,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>5287</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,61 +861,61 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2078</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2166</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>2081</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,83 +1245,83 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,71 +1331,71 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,22 +1971,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,39 +2067,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,93 +2227,93 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,71 +2419,71 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>817</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,83 +2493,83 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238458919.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238449327.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1237859425.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1237797742.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材10月18日被深股通减持12.64万股</t>
+          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1236441270.html</t>
+          <t>/news,300655,1237348028.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材10月17日被深股通减持59.43万股</t>
+          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 07:54</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1236042779.html</t>
+          <t>/news,300655,1236888677.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5287</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,61 +883,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>5292</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>4013</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2928</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,71 +1523,71 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2967</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 07:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1242326753.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,93 +2227,93 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-02 20:39</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1242245462.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-02 08:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1241809836.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1241800620.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-01 10:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1241442409.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>11-01 09:03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1241307512.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,157 +2397,157 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1241297871.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1240800429.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>10-31 08:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1240793688.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>10-30 15:18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1240714935.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1240707439.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>10-29 07:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1240600481.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>10-28 09:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1240062499.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>10-28 08:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1240051331.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-28 07:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1240047544.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>10-27 10:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1239599335.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>10-27 09:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1239569699.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>10-27 08:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1239507131.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>10-27 07:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1239498019.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>10-26 11:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1239166543.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：纳入融资融券标的首日，融资买入3576.16万元（10-24）</t>
+          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1238458919.html</t>
+          <t>/news,300655,1238979260.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材10月24日获深股通增持58.54万股</t>
+          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-26 07:59</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1238449327.html</t>
+          <t>/news,300655,1238970454.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少50%，减仓幅度两市排名第17</t>
+          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-26 00:09</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1237859425.html</t>
+          <t>/news,300655,1238935396.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材10月21日被深股通减持46.99万股</t>
+          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-22 07:56</t>
+          <t>10-25 20:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1237797742.html</t>
+          <t>/news,300655,1238887702.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材10月20日被深股通减持23.49万股</t>
+          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-25 19:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1237348028.html</t>
+          <t>/news,300655,1238874737.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材10月19日获深股通增持22.24万股</t>
+          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-25 19:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1236888677.html</t>
+          <t>/news,300655,1238867115.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>2695</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,157 +893,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>5207</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5292</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>2047</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>1392</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>2084</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>918</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,93 +1501,93 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,103 +1747,103 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,93 +1981,93 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>2390</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材11月02日被深股通减持26.28万股</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 07:57</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1242326753.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>民生证券维持晶瑞电材推荐评级 预计2022年净利润同比减少22.88%</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-02 20:39</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1242245462.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还307.89万元，融资余额6229.52万元（11-01）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-02 08:53</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1241809836.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材11月01日被深股通减持30.06万股</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,125 +2301,125 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1241800620.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中银证券维持晶瑞电材买入评级 预计2022年净利润同比减少17.41%</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 10:53</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1241442409.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入928.09万元，融资余额6537.42万元（10-31）</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 09:03</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1241307512.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材10月31日获深股通增持9.8万股</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1241297871.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入763.24万元，融资余额5609.32万元（10-28）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1240800429.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华鑫证券维持晶瑞电材买入评级 预计2022年净利润同比减少11.44%</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 08:43</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1240793688.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,71 +2483,71 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1444.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 15:18</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1240714935.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加96.35万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1240707439.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材10月28日获深股通增持21.3万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-29 07:53</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1240600481.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还90.47万元，融资余额4846.09万元（10-27）</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 09:12</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1240062499.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>方正证券维持晶瑞电材推荐评级 预计2022年净利润同比减少17.91%</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 08:12</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1240051331.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材10月27日被深股通减持17.4万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 07:48</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1240047544.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华安证券给予晶瑞电材买入评级：营收小幅增长 短期扰动不改长期成长</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-27 10:13</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1239599335.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华安证券维持晶瑞电材买入评级 预计2022年净利润同比减少18.9%</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-27 09:55</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1239569699.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入431.8万元，融资余额4936.55万元（10-26）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 08:56</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1239507131.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材10月26日获深股通增持11.72万股</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 07:53</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1239498019.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中金公司维持晶瑞电材跑赢行业评级 目标价19元</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 11:32</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1239166543.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入1103.42万元，融资余额4504.75万元（10-25）</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1238979260.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材10月25日被深股通减持70.3万股</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-26 07:59</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1238970454.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>【图解季报】晶瑞电材：2022年前三季度归母净利润为1.1亿元，同比下降33.9%</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-26 00:09</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1238935396.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材股东户数增加2.41%，户均持股13.92万元</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 20:53</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1238887702.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润约1.09亿元</t>
+          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 19:55</t>
+          <t>11-04 07:44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1238874737.html</t>
+          <t>/news,300655,1242816018.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：2022年前三季度净利润同比下降33.92%</t>
+          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 19:36</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1238867115.html</t>
+          <t>/news,300655,1242334958.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>5219</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,61 +1043,61 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1474,14 +1474,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>921</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,83 +1725,83 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,71 +1811,71 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2390</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,83 +2333,83 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,71 +2419,71 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2953</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,44 +2685,44 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,61 +2867,61 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材11月03日获深股通增持2.76万股</t>
+          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 07:44</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1242816018.html</t>
+          <t>/news,300655,1243319797.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还218.88万元，融资余额6010.64万元（11-02）</t>
+          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1242334958.html</t>
+          <t>/news,300655,1242826714.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,61 +1043,61 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>2063</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>987</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1538,14 +1538,14 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>926</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,71 +1875,71 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2390</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,83 +2397,83 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,71 +2483,71 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2956</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,44 +2749,44 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,61 +2931,61 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材11月04日获深股通增持23.58万股</t>
+          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1243319797.html</t>
+          <t>/news,300655,1243410015.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入3045.68万元，融资余额9056.32万元（11-03）</t>
+          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1242826714.html</t>
+          <t>/news,300655,1243404701.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
+          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 08:59</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1256101325.html</t>
+          <t>/news,300655,1256767074.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
+          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1256092749.html</t>
+          <t>/news,300655,1256757539.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>5255</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,61 +1171,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1602,14 +1602,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,83 +1853,83 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,71 +1939,71 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,83 +2461,83 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,71 +2547,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2956</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,44 +2813,44 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3447万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1243410015.html</t>
+          <t>/news,300655,1243974109.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少314.28万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1243404701.html</t>
+          <t>/news,300655,1243514665.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
+          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1256767074.html</t>
+          <t>/news,300655,1257409819.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
+          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1256757539.html</t>
+          <t>/news,300655,1257395240.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
+          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 08:59</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1256101325.html</t>
+          <t>/news,300655,1256767074.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
+          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1256092749.html</t>
+          <t>/news,300655,1256757539.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,61 +1171,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>5267</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>1407</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1666,14 +1666,14 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,83 +1917,83 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,71 +2003,71 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>1392</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,83 +2525,83 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,71 +2611,71 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2957</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,44 +2877,44 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 11:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244609626.html</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244437371.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材11月07日被深股通减持9.85万股</t>
+          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-08 07:48</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1243974109.html</t>
+          <t>/news,300655,1244426486.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还119.57万元，融资余额8936.76万元（11-04）</t>
+          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-07 08:55</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1243514665.html</t>
+          <t>/news,300655,1243983800.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
+          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1257409819.html</t>
+          <t>/news,300655,1258216783.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
+          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1257395240.html</t>
+          <t>/news,300655,1258088785.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
+          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1256767074.html</t>
+          <t>/news,300655,1258081437.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
+          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1256757539.html</t>
+          <t>/news,300655,1257966881.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
+          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 08:59</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1256101325.html</t>
+          <t>/news,300655,1257409819.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
+          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1256092749.html</t>
+          <t>/news,300655,1257395240.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1256767074.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1256757539.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,93 +861,93 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5267</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1407</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,93 +2109,93 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4028</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>2306</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,83 +2717,83 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>2959</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>开源证券首次给予晶瑞电材买入(Buy)评级 预计2022年净利润同比减少20.89%</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09 11:32</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1244609626.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1378.32万元（11-08）</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1244437371.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材11月08日被深股通减持7.34万股</t>
+          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 07:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1244426486.html</t>
+          <t>/news,300655,1244892832.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还166.94万元，融资余额8769.82万元（11-07）</t>
+          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 11:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1243983800.html</t>
+          <t>/news,300655,1244619569.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
+          <t>晶瑞电材：连续5日融资净买入累计1368.04万元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1258216783.html</t>
+          <t>/news,300655,1258770570.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
+          <t>晶瑞电材12月12日获深股通增持29.53万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1258088785.html</t>
+          <t>/news,300655,1258760321.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1258081437.html</t>
+          <t>/news,300655,1258216783.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
+          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1257966881.html</t>
+          <t>/news,300655,1258088785.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
+          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1257409819.html</t>
+          <t>/news,300655,1258081437.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
+          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1257395240.html</t>
+          <t>/news,300655,1257966881.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
+          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1256767074.html</t>
+          <t>/news,300655,1257409819.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
+          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1256757539.html</t>
+          <t>/news,300655,1257395240.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
+          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 08:59</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1256101325.html</t>
+          <t>/news,300655,1256767074.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
+          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1256092749.html</t>
+          <t>/news,300655,1256757539.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3174</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,61 +1363,61 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>5306</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,61 +1427,61 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2071</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1858,14 +1858,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,83 +2109,83 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,71 +2195,71 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5312</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2306</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>2307</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,83 +2717,83 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,71 +2803,71 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2959</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材11月09日被深股通减持3.64万股</t>
+          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-10 07:57</t>
+          <t>11-11 08:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1244892832.html</t>
+          <t>/news,300655,1245415239.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>开源证券给予晶瑞电材买入评级 公司首次覆盖报告：国内微电子化学品龙头 发展前景广阔</t>
+          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-09 11:54</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1244619569.html</t>
+          <t>/news,300655,1244901247.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计1368.04万元（12-12）</t>
+          <t>晶瑞电材：融资净偿还441.06万元，融资余额1.01亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:57</t>
+          <t>12-14 09:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1258770570.html</t>
+          <t>/news,300655,1259357211.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材12月12日获深股通增持29.53万股</t>
+          <t>晶瑞电材12月13日被深股通减持71.46万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:44</t>
+          <t>12-14 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1258760321.html</t>
+          <t>/news,300655,1259347833.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
+          <t>晶瑞电材：连续5日融资净买入累计1368.04万元（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1258216783.html</t>
+          <t>/news,300655,1258770570.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
+          <t>晶瑞电材12月12日获深股通增持29.53万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1258088785.html</t>
+          <t>/news,300655,1258760321.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1258081437.html</t>
+          <t>/news,300655,1258216783.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
+          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1257966881.html</t>
+          <t>/news,300655,1258088785.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
+          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1257409819.html</t>
+          <t>/news,300655,1258081437.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
+          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1257395240.html</t>
+          <t>/news,300655,1257966881.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
+          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1256767074.html</t>
+          <t>/news,300655,1257409819.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
+          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1256757539.html</t>
+          <t>/news,300655,1257395240.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
+          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 08:59</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1256101325.html</t>
+          <t>/news,300655,1256767074.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
+          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1256092749.html</t>
+          <t>/news,300655,1256757539.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,61 +1427,61 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>5333</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,61 +1491,61 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2073</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>2079</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1922,14 +1922,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,83 +2173,83 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,71 +2259,71 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5312</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2307</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-16 10:40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1247315397.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1247184021.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-16 07:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1247175695.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,83 +2781,83 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-15 08:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1246699236.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1246690100.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:57</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1246198249.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,71 +2867,71 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1246098497.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1246093853.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1245987114.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2959</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材11月10日获深股通增持1.67万股</t>
+          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-11 08:02</t>
+          <t>11-11 12:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1245415239.html</t>
+          <t>/news,300655,1245664548.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计1576.26万元（11-09）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1244901247.html</t>
+          <t>/news,300655,1245424358.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还441.06万元，融资余额1.01亿元（12-13）</t>
+          <t>晶瑞电材12月19日被深股通减持5.99万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 09:03</t>
+          <t>12-20 07:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1259357211.html</t>
+          <t>/news,300655,1261724277.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材12月13日被深股通减持71.46万股</t>
+          <t>晶瑞电材：子公司瑞红苏州新三板挂牌申请获受理</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:55</t>
+          <t>12-19 22:39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1259347833.html</t>
+          <t>/news,300655,1261654891.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计1368.04万元（12-12）</t>
+          <t>晶瑞电材：融资净买入112.47万元，融资余额9829.72万元（12-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 08:57</t>
+          <t>12-19 08:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1258770570.html</t>
+          <t>/news,300655,1261208144.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材12月12日获深股通增持29.53万股</t>
+          <t>晶瑞电材本周融资净偿还651.63万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:44</t>
+          <t>12-18 15:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1258760321.html</t>
+          <t>/news,300655,1261089824.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
+          <t>晶瑞电材本周深股通持股市值减少107.2万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-18 14:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1258216783.html</t>
+          <t>/news,300655,1261081773.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
+          <t>晶瑞电材12月16日被深股通减持76.95万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1258088785.html</t>
+          <t>/news,300655,1260974731.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净偿还422.69万元，融资余额9717.25万元（12-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-16 08:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1258081437.html</t>
+          <t>/news,300655,1260487896.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
+          <t>晶瑞电材12月15日获深股通增持49.2万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-16 07:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1257966881.html</t>
+          <t>/news,300655,1260478062.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
+          <t>晶瑞电材：融资净买入64.01万元，融资余额1.01亿元（12-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-15 09:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1257409819.html</t>
+          <t>/news,300655,1259945126.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
+          <t>晶瑞电材12月14日获深股通增持62.2万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-15 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1257395240.html</t>
+          <t>/news,300655,1259934555.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2840</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
+          <t>晶瑞电材：公司的医药中间体主要以γ-丁内酯（GBL）为主 作为相关药品的原材料</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-14 21:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1256767074.html</t>
+          <t>/news,300655,1259817205.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
+          <t>晶瑞电材：融资净偿还441.06万元，融资余额1.01亿元（12-13）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-14 09:03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1256757539.html</t>
+          <t>/news,300655,1259357211.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
+          <t>晶瑞电材12月13日被深股通减持71.46万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 08:59</t>
+          <t>12-14 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1256101325.html</t>
+          <t>/news,300655,1259347833.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
+          <t>晶瑞电材：连续5日融资净买入累计1368.04万元（12-12）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1256092749.html</t>
+          <t>/news,300655,1258770570.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材12月12日获深股通增持29.53万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-13 07:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1258760321.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1258216783.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1258088785.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1258081437.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1257966881.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1257409819.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1257395240.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1256767074.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1256757539.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5333</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,83 +1469,83 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>3314</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2079</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,71 +1843,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>943</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5312</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,24 +2525,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,71 +2611,71 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材、华兴源创等成立私募公司 注册资本1.01亿</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 10:40</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1247315397.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入911.6万元，融资余额8187.2万元（11-15）</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1247184021.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>5318</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材11月15日获深股通增持122.37万股</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-16 07:51</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1247175695.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入666.47万元，融资余额7275.59万元（11-14）</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 08:54</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1246699236.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材11月14日被深股通减持87.42万股</t>
+          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 07:50</t>
+          <t>11-18 08:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1246690100.html</t>
+          <t>/news,300655,1248161916.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计2447.2万元（11-11）</t>
+          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-14 08:57</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1246198249.html</t>
+          <t>/news,300655,1248153264.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,71 +2867,71 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还1767.82万元，居电子化学品板块第一</t>
+          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-17 22:16</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1246098497.html</t>
+          <t>/news,300655,1248104082.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加1301.84万元，居电子化学品板块第三</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-17 21:18</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1246093853.html</t>
+          <t>/news,300655,1248091274.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材11月11日获深股通增持99.59万股</t>
+          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-17 21:03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1245987114.html</t>
+          <t>/news,300655,1248085325.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材：为保证公司的供应安全 公司泛半导体材料的原材料供应链具有全球化的布局</t>
+          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-11 12:39</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1245664548.html</t>
+          <t>/news,300655,1247676553.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计1887.38万元（11-10）</t>
+          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-17 08:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1245424358.html</t>
+          <t>/news,300655,1247669736.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300655.xlsx
+++ b/news_ann/news/tmp/300655.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>晶瑞电材12月19日被深股通减持5.99万股</t>
+          <t>晶瑞电材：连续4日融资净偿还累计855.89万元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:49</t>
+          <t>12-23 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300655,1261724277.html</t>
+          <t>/news,300655,1263199093.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>晶瑞电材：子公司瑞红苏州新三板挂牌申请获受理</t>
+          <t>晶瑞电材12月22日被深股通减持28.18万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-19 22:39</t>
+          <t>12-23 07:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300655,1261654891.html</t>
+          <t>/news,300655,1263190135.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入112.47万元，融资余额9829.72万元（12-16）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计712.7万元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 08:56</t>
+          <t>12-22 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300655,1261208144.html</t>
+          <t>/news,300655,1262679133.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还651.63万元，居电子化学品板块第四</t>
+          <t>晶瑞电材12月21日获深股通增持78.96万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 15:24</t>
+          <t>12-22 07:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300655,1261089824.html</t>
+          <t>/news,300655,1262668447.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值减少107.2万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：融资净偿还173.21万元，融资余额9402.47万元（12-20）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-18 14:14</t>
+          <t>12-21 08:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300655,1261081773.html</t>
+          <t>/news,300655,1262205260.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晶瑞电材12月16日被深股通减持76.95万股</t>
+          <t>晶瑞电材12月20日被深股通减持10万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:43</t>
+          <t>12-21 07:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300655,1260974731.html</t>
+          <t>/news,300655,1262195586.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还422.69万元，融资余额9717.25万元（12-15）</t>
+          <t>晶瑞电材：融资净偿还254.05万元，融资余额9575.67万元（12-19）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 08:59</t>
+          <t>12-20 09:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300655,1260487896.html</t>
+          <t>/news,300655,1261734942.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晶瑞电材12月15日获深股通增持49.2万股</t>
+          <t>晶瑞电材12月19日被深股通减持5.99万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 07:54</t>
+          <t>12-20 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300655,1260478062.html</t>
+          <t>/news,300655,1261724277.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入64.01万元，融资余额1.01亿元（12-14）</t>
+          <t>晶瑞电材：子公司瑞红苏州新三板挂牌申请获受理</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 09:02</t>
+          <t>12-19 22:39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300655,1259945126.html</t>
+          <t>/news,300655,1261654891.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>晶瑞电材12月14日获深股通增持62.2万股</t>
+          <t>晶瑞电材：融资净买入112.47万元，融资余额9829.72万元（12-16）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-15 07:56</t>
+          <t>12-19 08:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300655,1259934555.html</t>
+          <t>/news,300655,1261208144.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2840</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司的医药中间体主要以γ-丁内酯（GBL）为主 作为相关药品的原材料</t>
+          <t>晶瑞电材本周融资净偿还651.63万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-14 21:41</t>
+          <t>12-18 15:24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300655,1259817205.html</t>
+          <t>/news,300655,1261089824.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还441.06万元，融资余额1.01亿元（12-13）</t>
+          <t>晶瑞电材本周深股通持股市值减少107.2万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-14 09:03</t>
+          <t>12-18 14:14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300655,1259357211.html</t>
+          <t>/news,300655,1261081773.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>晶瑞电材12月13日被深股通减持71.46万股</t>
+          <t>晶瑞电材12月16日被深股通减持76.95万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-14 07:55</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300655,1259347833.html</t>
+          <t>/news,300655,1260974731.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计1368.04万元（12-12）</t>
+          <t>晶瑞电材：融资净偿还422.69万元，融资余额9717.25万元（12-15）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-13 08:57</t>
+          <t>12-16 08:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300655,1258770570.html</t>
+          <t>/news,300655,1260487896.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>晶瑞电材12月12日获深股通增持29.53万股</t>
+          <t>晶瑞电材12月15日获深股通增持49.2万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-13 07:44</t>
+          <t>12-16 07:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300655,1258760321.html</t>
+          <t>/news,300655,1260478062.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
+          <t>晶瑞电材：融资净买入64.01万元，融资余额1.01亿元（12-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-15 09:02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300655,1258216783.html</t>
+          <t>/news,300655,1259945126.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
+          <t>晶瑞电材12月14日获深股通增持62.2万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-15 07:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300655,1258088785.html</t>
+          <t>/news,300655,1259934555.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
+          <t>晶瑞电材：公司的医药中间体主要以γ-丁内酯（GBL）为主 作为相关药品的原材料</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-14 21:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300655,1258081437.html</t>
+          <t>/news,300655,1259817205.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
+          <t>晶瑞电材：融资净偿还441.06万元，融资余额1.01亿元（12-13）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-10 08:01</t>
+          <t>12-14 09:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300655,1257966881.html</t>
+          <t>/news,300655,1259357211.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
+          <t>晶瑞电材12月13日被深股通减持71.46万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-14 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300655,1257409819.html</t>
+          <t>/news,300655,1259347833.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
+          <t>晶瑞电材：连续5日融资净买入累计1368.04万元（12-12）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300655,1257395240.html</t>
+          <t>/news,300655,1258770570.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
+          <t>晶瑞电材12月12日获深股通增持29.53万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-13 07:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300655,1256767074.html</t>
+          <t>/news,300655,1258760321.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
+          <t>晶瑞电材：连续4日融资净买入累计1219.93万元（12-09）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300655,1256757539.html</t>
+          <t>/news,300655,1258216783.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
+          <t>晶瑞电材本周融资净买入714.71万元，居电子化学品板块第七</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-07 08:59</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300655,1256101325.html</t>
+          <t>/news,300655,1258088785.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
+          <t>晶瑞电材本周深股通持股市值增加78.76万元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300655,1256092749.html</t>
+          <t>/news,300655,1258081437.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
+          <t>晶瑞电材12月09日获深股通增持13.4万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-10 08:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300655,1255457730.html</t>
+          <t>/news,300655,1257966881.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
+          <t>晶瑞电材：连续3日融资净买入累计1002.66万元（12-08）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-06 07:58</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300655,1255449899.html</t>
+          <t>/news,300655,1257409819.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
+          <t>晶瑞电材12月08日被深股通减持17.05万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-05 08:52</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300655,1254803034.html</t>
+          <t>/news,300655,1257395240.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
+          <t>晶瑞电材：融资净买入526.17万元，融资余额1亿元（12-07）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300655,1254650639.html</t>
+          <t>/news,300655,1256767074.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
+          <t>晶瑞电材12月07日被深股通减持26.05万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300655,1254642245.html</t>
+          <t>/news,300655,1256757539.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
+          <t>晶瑞电材：融资净买入328.73万元，融资余额9477.68万元（12-06）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-03 07:48</t>
+          <t>12-07 08:59</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300655,1254511781.html</t>
+          <t>/news,300655,1256101325.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
+          <t>晶瑞电材12月06日获深股通增持35.32万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-02 08:50</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300655,1253920791.html</t>
+          <t>/news,300655,1256092749.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
+          <t>晶瑞电材：连续6日融资净偿还累计3199.14万元（12-05）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300655,1253914612.html</t>
+          <t>/news,300655,1255457730.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
+          <t>晶瑞电材12月05日深股通持有量105.96万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 20:37</t>
+          <t>12-06 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300655,1253812375.html</t>
+          <t>/news,300655,1255449899.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
+          <t>晶瑞电材：连续5日融资净偿还累计2911.2万元（12-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-05 08:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300655,1253311649.html</t>
+          <t>/news,300655,1254803034.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
+          <t>晶瑞电材本周融资净偿还2719.9万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300655,1253301214.html</t>
+          <t>/news,300655,1254650639.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
+          <t>晶瑞电材本周深股通持股市值增加8870元，居电子化学品板块第四</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300655,1252787880.html</t>
+          <t>/news,300655,1254642245.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
+          <t>晶瑞电材12月02日被深股通减持33.81万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-30 07:58</t>
+          <t>12-03 07:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300655,1252780135.html</t>
+          <t>/news,300655,1254511781.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
+          <t>晶瑞电材：连续4日融资净偿还累计2719.9万元（12-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>12-02 08:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300655,1252223496.html</t>
+          <t>/news,300655,1253920791.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
+          <t>晶瑞电材12月01日获深股通增持20.89万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300655,1252214795.html</t>
+          <t>/news,300655,1253914612.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
+          <t>晶瑞电材：公司完成回购 总计回购约189万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-28 17:57</t>
+          <t>12-01 20:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300655,1252075016.html</t>
+          <t>/news,300655,1253812375.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
+          <t>晶瑞电材：连续3日融资净偿还累计1285.2万元（11-30）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-28 08:49</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300655,1251734732.html</t>
+          <t>/news,300655,1253311649.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
+          <t>晶瑞电材11月30日被深股通减持4.29万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-28 07:57</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300655,1251728754.html</t>
+          <t>/news,300655,1253301214.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：融资净偿还70.5万元，融资余额1.15亿元（11-29）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300655,1251589987.html</t>
+          <t>/news,300655,1252787880.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
+          <t>晶瑞电材11月29日被深股通减持29.88万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-27 14:07</t>
+          <t>11-30 07:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300655,1251584705.html</t>
+          <t>/news,300655,1252780135.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
+          <t>晶瑞电材：融资净偿还791.26万元，融资余额1.16亿元（11-28）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-26 07:54</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300655,1251434599.html</t>
+          <t>/news,300655,1252223496.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晶瑞电材拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材11月28日获深股通增持46.9万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 18:19</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300655,1251309408.html</t>
+          <t>/news,300655,1252214795.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元 股价跌5.67%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-25 18:12</t>
+          <t>11-28 17:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300655,1251312332.html</t>
+          <t>/news,300655,1252075016.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
+          <t>晶瑞电材：连续7日融资净买入累计4190.63万元（11-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-25 18:11</t>
+          <t>11-28 08:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300655,1251311809.html</t>
+          <t>/news,300655,1251734732.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2133</t>
+          <t>5453</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
+          <t>花掉13亿之后 晶瑞电材拟“再圈”9.7亿大扩产</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-25 18:00</t>
+          <t>11-28 07:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300655,1251307867.html</t>
+          <t>/news,300655,1251728754.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
+          <t>晶瑞电材本周融资净买入1061.19万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300655,1251304116.html</t>
+          <t>/news,300655,1251589987.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>晶瑞电材：未来三年股东分红回报规划</t>
+          <t>晶瑞电材：本周深股通持股量环比减少67%，减仓幅度两市排名第13</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-25 17:51</t>
+          <t>11-27 14:07</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300655,1251304113.html</t>
+          <t>/news,300655,1251584705.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
+          <t>晶瑞电材11月25日被深股通减持13.29万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-25 17:38</t>
+          <t>11-26 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300655,1251302237.html</t>
+          <t>/news,300655,1251434599.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
+          <t>晶瑞电材拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-25 18:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300655,1250952548.html</t>
+          <t>/news,300655,1251309408.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
+          <t>晶瑞电材：公司锂电池材料NMP现有年产能约为2.5万吨</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-25 07:58</t>
+          <t>11-25 18:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300655,1250944892.html</t>
+          <t>/news,300655,1251312332.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元 用于年产2万吨γ-丁内酯项目等</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-24 16:19</t>
+          <t>11-25 18:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300655,1250755341.html</t>
+          <t>/news,300655,1251311809.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>2142</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
+          <t>晶瑞电材：拟定增募资不超过9.7亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300655,1250751662.html</t>
+          <t>/news,300655,1251307867.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
+          <t>注意！晶瑞电材将于12月13日召开股东大会</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300655,1250751661.html</t>
+          <t>/news,300655,1251304116.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
+          <t>晶瑞电材：未来三年股东分红回报规划</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-24 16:07</t>
+          <t>11-25 17:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300655,1250751660.html</t>
+          <t>/news,300655,1251304113.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
+          <t>晶瑞电材：拟定增募资不超9.7亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-24 08:54</t>
+          <t>11-25 17:38</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300655,1250430037.html</t>
+          <t>/news,300655,1251302237.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
+          <t>晶瑞电材：连续6日融资净买入累计3671.54万元（11-24）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-24 07:57</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300655,1250421590.html</t>
+          <t>/news,300655,1250952548.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
+          <t>晶瑞电材11月24日被深股通减持30.49万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-25 07:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300655,1249883601.html</t>
+          <t>/news,300655,1250944892.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-23 07:51</t>
+          <t>11-24 16:19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300655,1249875854.html</t>
+          <t>/news,300655,1250755341.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
+          <t>是否有专业涉及射频天线 避雷针业务？晶瑞电材：业务范围不涵盖</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300655,1249356690.html</t>
+          <t>/news,300655,1250751662.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
+          <t>晶瑞电材：公司锂电池材料NMP处于满产满销状态 核心客户出货量稳定</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300655,1249348629.html</t>
+          <t>/news,300655,1250751661.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材：公司各系列光刻胶的研发及验证平台运行状况良好</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-21 19:36</t>
+          <t>11-24 16:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300655,1249234589.html</t>
+          <t>/news,300655,1250751660.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
+          <t>晶瑞电材：连续5日融资净买入累计3531.96万元（11-23）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-21 08:54</t>
+          <t>11-24 08:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300655,1248873456.html</t>
+          <t>/news,300655,1250430037.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
+          <t>晶瑞电材11月23日深股通持有量150.9万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-24 07:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300655,1248768744.html</t>
+          <t>/news,300655,1250421590.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
+          <t>晶瑞电材：连续4日融资净买入累计3438.04万元（11-22）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-20 14:05</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300655,1248762950.html</t>
+          <t>/news,300655,1249883601.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
+          <t>晶瑞电材11月22日被深股通减持27.93万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-23 07:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300655,1248639339.html</t>
+          <t>/news,300655,1249875854.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晶瑞电材拟不超过3000万元回购股份</t>
+          <t>晶瑞电材：连续3日融资净买入累计2825.23万元（11-21）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-18 17:36</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300655,1248543418.html</t>
+          <t>/news,300655,1249356690.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5318</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
+          <t>晶瑞电材11月21日被深股通减持44.1万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-18 09:21</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300655,1248172229.html</t>
+          <t>/news,300655,1249348629.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
+          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>晶瑞电材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-18 09:06</t>
+          <t>11-21 19:36</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300655,1248166570.html</t>
+          <t>/news,300655,1249234589.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净买入2298.88万元，融资余额1.05亿元（11-17）</t>
+          <t>晶瑞电材：融资净买入311.48万元，融资余额1.08亿元（11-18）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-18 08:45</t>
+          <t>11-21 08:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300655,1248161916.html</t>
+          <t>/news,300655,1248873456.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,71 +2835,71 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>晶瑞电材11月17日被深股通减持81.21万股</t>
+          <t>晶瑞电材本周融资净买入3847.22万元，居电子化学品板块第一</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300655,1248153264.html</t>
+          <t>/news,300655,1248768744.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>晶瑞电材拟斥资1500万至3000万元回购股份</t>
+          <t>晶瑞电材本周深股通持股市值增加200.39万元，居电子化学品板块第五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-17 22:16</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300655,1248104082.html</t>
+          <t>/news,300655,1248762950.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟回购不低于1500万元且不超过3000万元公司股份</t>
+          <t>晶瑞电材11月18日获深股通增持82.78万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-17 21:18</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300655,1248091274.html</t>
+          <t>/news,300655,1248639339.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>晶瑞电材：拟1500万元-3000万元回购股份</t>
+          <t>晶瑞电材拟不超过3000万元回购股份</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-17 21:03</t>
+          <t>11-18 17:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300655,1248085325.html</t>
+          <t>/news,300655,1248543418.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>5321</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>晶瑞电材：融资净偿还29.73万元，融资余额8157.47万元（11-16）</t>
+          <t>晶瑞电材：拟以1500万元至3000万元回购公司股份</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 09:21</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300655,1247676553.html</t>
+          <t>/news,300655,1248172229.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>晶瑞电材11月16日被深股通减持32.9万股</t>
+          <t>东北证券首次给予晶瑞电材增持评级 预计2022年净利润同比减少21.89%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>晶瑞电材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-17 08:02</t>
+          <t>11-18 09:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300655,1247669736.html</t>
+          <t>/news,300655,1248166570.html</t>
         </is>
       </c>
     </row>
